--- a/data/checked/china/jilin/jilinCaseStatistics_20200401.xlsx
+++ b/data/checked/china/jilin/jilinCaseStatistics_20200401.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18127\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\test\COVID-19\data\checked\china\jilin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC89B34A-5C41-45CE-B966-56CDC2D4294E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA427CF-5A03-42CB-B15C-555233B64E2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9389" uniqueCount="3309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9402" uniqueCount="3309">
   <si>
     <t>统计级别</t>
   </si>
@@ -10813,54 +10813,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3:AC18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.05859375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.3515625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="12.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.36328125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="22.36328125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="22.1796875" style="12" customWidth="1"/>
-    <col min="16" max="19" width="12.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.08984375" style="12" customWidth="1"/>
-    <col min="21" max="21" width="20.7265625" style="12" customWidth="1"/>
-    <col min="22" max="22" width="19.54296875" style="12" customWidth="1"/>
-    <col min="23" max="24" width="26.6328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.453125" style="12" customWidth="1"/>
-    <col min="26" max="26" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.05859375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.46875" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.3515625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="22.3515625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="22.17578125" style="12" customWidth="1"/>
+    <col min="16" max="19" width="12.46875" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.05859375" style="12" customWidth="1"/>
+    <col min="21" max="21" width="20.703125" style="12" customWidth="1"/>
+    <col min="22" max="22" width="19.52734375" style="12" customWidth="1"/>
+    <col min="23" max="24" width="26.64453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.46875" style="12" customWidth="1"/>
+    <col min="26" max="26" width="31.87890625" style="13" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18" style="12" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="60" style="12" customWidth="1"/>
-    <col min="29" max="29" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.08984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.05859375" style="12" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.46875" style="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.46875" style="12" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="21.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="31.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.46875" style="12" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="31" style="12" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="10.90625" style="12"/>
+    <col min="46" max="46" width="5.05859375" style="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="10.87890625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="16" customFormat="1" ht="16.2">
+    <row r="1" spans="1:46" s="16" customFormat="1" ht="15.75">
       <c r="A1" s="14" t="s">
         <v>3251</v>
       </c>
@@ -11736,9 +11736,6 @@
       <c r="G14" s="12" t="s">
         <v>3301</v>
       </c>
-      <c r="T14" s="17">
-        <v>4</v>
-      </c>
       <c r="Y14" s="17" t="s">
         <v>3291</v>
       </c>
@@ -11795,6 +11792,9 @@
       </c>
       <c r="P15" s="17">
         <v>5</v>
+      </c>
+      <c r="T15" s="17">
+        <v>4</v>
       </c>
       <c r="Y15" s="17" t="s">
         <v>3291</v>
@@ -12014,34 +12014,93 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
-      <c r="R19" s="17"/>
+    <row r="19" spans="1:35" s="17" customFormat="1">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C19" s="18">
+        <v>43922</v>
+      </c>
+      <c r="D19" s="18">
+        <v>43923</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>3293</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>3301</v>
+      </c>
+      <c r="T19" s="12">
+        <v>4</v>
+      </c>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="Y19" s="17" t="s">
+        <v>3291</v>
+      </c>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="17" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AB19" s="19" t="s">
+        <v>3306</v>
+      </c>
+      <c r="AC19" s="18">
+        <v>43923.379675925928</v>
+      </c>
+      <c r="AD19" s="17" t="s">
+        <v>3305</v>
+      </c>
+      <c r="AE19" s="19" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AF19" s="18">
+        <v>43923.416666666664</v>
+      </c>
+      <c r="AG19" s="17" t="s">
+        <v>3287</v>
+      </c>
+      <c r="AH19" s="17" t="s">
+        <v>3288</v>
+      </c>
+      <c r="AI19" s="17" t="s">
+        <v>3289</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="E9:E11 E14:E18" xr:uid="{F5E1B5D7-9ABA-4A48-BDD3-629230469C8E}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="E9:E11 E14:E19" xr:uid="{F5E1B5D7-9ABA-4A48-BDD3-629230469C8E}">
       <formula1>INDIRECT($D9)</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16:Q18 I2:S15 I19:S1048576 S16:S18 T2:X1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16:Q19 I2:S15 S16:S19 T2:X1048576 I20:S1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AQ2:AQ1048576 AK2:AK1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AQ2:AQ1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS1048576 AM2:AM1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13 G15:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576 G14" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14 H2:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -12050,9 +12109,11 @@
     <hyperlink ref="AB3:AB18" r:id="rId2" display="http://www.jl.gov.cn/szfzt/jlzxd/yqtb/202004/t20200402_7020284.html" xr:uid="{A16C5A9D-D362-42DD-B576-46370B0E4D75}"/>
     <hyperlink ref="AE2" r:id="rId3" xr:uid="{BD8405C6-4E59-4D49-AC6C-46399613CB98}"/>
     <hyperlink ref="AE3:AE18" r:id="rId4" display="http://www.jl.xinhuanet.com/2020-04/02/c_1125803107.htm" xr:uid="{AEA1D218-BB9C-4A79-9E5A-296E1230AB30}"/>
+    <hyperlink ref="AB19" r:id="rId5" xr:uid="{EF1AFC6C-65E9-4612-A7A0-0FA309F350BC}"/>
+    <hyperlink ref="AE19" r:id="rId6" xr:uid="{7C06FD83-2E6F-4D3A-A556-61B021353BB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -12060,13 +12121,13 @@
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
-          <xm:sqref>F19:F1048576</xm:sqref>
+          <xm:sqref>F20:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{D7FFD5DE-B10D-4E72-88B9-87F07558AF7D}">
           <x14:formula1>
             <xm:f>[jilinCaseStatistics_20200211.xlsx]中国各省市区县数据!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F18</xm:sqref>
+          <xm:sqref>F2:F19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12083,10 +12144,10 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.46875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
